--- a/sample-block/v2.0.0/sample-block-v2.0.0.xlsx
+++ b/sample-block/v2.0.0/sample-block-v2.0.0.xlsx
@@ -8,7 +8,7 @@
   <sheets>
     <sheet name="Sample Block" r:id="rId3" sheetId="1"/>
     <sheet name="source_storage_duration_unit" r:id="rId4" sheetId="2"/>
-    <sheet name="weight_unit" r:id="rId5" sheetId="3"/>
+    <sheet name="tissue_weight_unit" r:id="rId5" sheetId="3"/>
     <sheet name="volume_unit" r:id="rId6" sheetId="4"/>
     <sheet name="pathology_distance_unit" r:id="rId7" sheetId="5"/>
     <sheet name="preparation_medium" r:id="rId8" sheetId="6"/>
@@ -47,12 +47,12 @@
     </comment>
     <comment ref="D1" authorId="1">
       <text>
-        <t>Weight of the sample block</t>
+        <t>The weight of a tissue block or the piece of tissue used in a suspension.</t>
       </text>
     </comment>
     <comment ref="E1" authorId="1">
       <text>
-        <t>The weight unit of measurement</t>
+        <t>The tissue weight unit of measurement</t>
       </text>
     </comment>
     <comment ref="F1" authorId="1">
@@ -140,7 +140,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="138">
   <si>
     <t>sample_id</t>
   </si>
@@ -181,10 +181,10 @@
     <t>http://purl.obolibrary.org/obo/UO_0000031</t>
   </si>
   <si>
-    <t>weight_value</t>
-  </si>
-  <si>
-    <t>weight_unit</t>
+    <t>tissue_weight_value</t>
+  </si>
+  <si>
+    <t>tissue_weight_unit</t>
   </si>
   <si>
     <t>ng</t>
@@ -280,6 +280,18 @@
     <t>http://purl.obolibrary.org/obo/OBI_0100046</t>
   </si>
   <si>
+    <t>NBF (Neutral Buffered Formalin)</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/OBIB_0000213</t>
+  </si>
+  <si>
+    <t>PLP (Periodate-lysine-paraformaldehyde)</t>
+  </si>
+  <si>
+    <t>http://purl.bioontology.org/ontology/MESH/C046311</t>
+  </si>
+  <si>
     <t>Ethanol</t>
   </si>
   <si>
@@ -298,48 +310,42 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000134</t>
   </si>
   <si>
-    <t>Neutral Buffered Formalin (NBF)</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/OBIB_0000213</t>
-  </si>
-  <si>
-    <t>PFA</t>
+    <t>Inflated (Agarose)</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000106</t>
+  </si>
+  <si>
+    <t>MACS tissue storage solution</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000105</t>
+  </si>
+  <si>
+    <t>Fresh frozen CMC</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000130</t>
+  </si>
+  <si>
+    <t>Inflated (OCT)</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000123</t>
+  </si>
+  <si>
+    <t>Fresh frozen gelatin</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000198</t>
+  </si>
+  <si>
+    <t>PFA (Paraformaldehyde)</t>
   </si>
   <si>
     <t>http://purl.obolibrary.org/obo/CHEBI_61538</t>
   </si>
   <si>
-    <t>Inflated (Agarose)</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000106</t>
-  </si>
-  <si>
-    <t>MACS tissue storage solution</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000105</t>
-  </si>
-  <si>
-    <t>Fresh frozen CMC</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000130</t>
-  </si>
-  <si>
-    <t>Inflated (OCT)</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000123</t>
-  </si>
-  <si>
-    <t>Fresh frozen gelatin</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000198</t>
-  </si>
-  <si>
     <t>Fixed frozen OCT (Formalin, sucrose protected)</t>
   </si>
   <si>
@@ -484,24 +490,24 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000135</t>
   </si>
   <si>
-    <t>Paraffin embedded (FFPE)</t>
+    <t>DMSO (with serum)</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000125</t>
+  </si>
+  <si>
+    <t>Gelatin</t>
+  </si>
+  <si>
+    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C65802</t>
+  </si>
+  <si>
+    <t>FFPE (Paraffin embedded)</t>
   </si>
   <si>
     <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C143028</t>
   </si>
   <si>
-    <t>DMSO (with serum)</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000125</t>
-  </si>
-  <si>
-    <t>Gelatin</t>
-  </si>
-  <si>
-    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C65802</t>
-  </si>
-  <si>
     <t>CMC</t>
   </si>
   <si>
@@ -541,7 +547,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2023-08-03T09:15:14-07:00</t>
+    <t>2023-08-04T07:35:33-07:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -643,8 +649,8 @@
     <col min="1" max="1" style="2" width="10.0078125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" style="3" width="28.5625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" style="4" width="27.40234375" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" style="5" width="12.54296875" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" style="6" width="11.3828125" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" style="5" width="18.703125" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" style="6" width="17.54296875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" style="7" width="13.0859375" customWidth="true" bestFit="true"/>
     <col min="7" max="7" style="8" width="11.92578125" customWidth="true" bestFit="true"/>
     <col min="8" max="8" style="9" width="23.81640625" customWidth="true" bestFit="true"/>
@@ -693,36 +699,36 @@
         <v>43</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="2">
       <c r="S2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -739,7 +745,7 @@
       <formula2/>
     </dataValidation>
     <dataValidation type="list" sqref="E2:E1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'weight_unit'!$A$1:$A$5</formula1>
+      <formula1>'tissue_weight_unit'!$A$1:$A$5</formula1>
     </dataValidation>
     <dataValidation type="decimal" operator="greaterThan" sqref="F2:F1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>0</formula1>
@@ -756,7 +762,7 @@
       <formula1>'pathology_distance_unit'!$A$1:$A$4</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="J2:J1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'preparation_medium'!$A$1:$A$21</formula1>
+      <formula1>'preparation_medium'!$A$1:$A$22</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="K2:K1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'preparation_condition'!$A$1:$A$10</formula1>
@@ -791,90 +797,90 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B3" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B4" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B6" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B8" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B9" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B10" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B11" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -898,30 +904,30 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -1119,7 +1125,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1291,6 +1297,14 @@
       </c>
       <c r="B21" t="s">
         <v>85</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>86</v>
+      </c>
+      <c r="B22" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -1308,82 +1322,82 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B3" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B4" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B6" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B8" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B9" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B10" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -1462,10 +1476,10 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3">
@@ -1478,10 +1492,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5">
@@ -1494,106 +1508,106 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>54</v>
+        <v>112</v>
       </c>
       <c r="B6" t="s">
-        <v>55</v>
+        <v>113</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>110</v>
+        <v>58</v>
       </c>
       <c r="B7" t="s">
-        <v>111</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="B8" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B9" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B10" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>116</v>
+        <v>70</v>
       </c>
       <c r="B11" t="s">
-        <v>117</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>68</v>
+        <v>118</v>
       </c>
       <c r="B12" t="s">
-        <v>69</v>
+        <v>119</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>118</v>
+        <v>74</v>
       </c>
       <c r="B13" t="s">
-        <v>119</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>72</v>
+        <v>120</v>
       </c>
       <c r="B14" t="s">
-        <v>73</v>
+        <v>121</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B15" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B16" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B17" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B18" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/sample-block/v2.0.0/sample-block-v2.0.0.xlsx
+++ b/sample-block/v2.0.0/sample-block-v2.0.0.xlsx
@@ -547,7 +547,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2023-08-04T07:35:33-07:00</t>
+    <t>2023-08-11T13:11:45-07:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -733,28 +733,28 @@
     </row>
   </sheetData>
   <dataValidations count="14">
-    <dataValidation type="decimal" operator="greaterThan" sqref="B2:B1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
+    <dataValidation type="decimal" operator="greaterThanOrEqual" sqref="B2:B1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>0</formula1>
       <formula2/>
     </dataValidation>
     <dataValidation type="list" sqref="C2:C1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'source_storage_duration_unit'!$A$1:$A$5</formula1>
     </dataValidation>
-    <dataValidation type="decimal" operator="greaterThan" sqref="D2:D1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
+    <dataValidation type="decimal" operator="greaterThanOrEqual" sqref="D2:D1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>0</formula1>
       <formula2/>
     </dataValidation>
     <dataValidation type="list" sqref="E2:E1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'tissue_weight_unit'!$A$1:$A$5</formula1>
     </dataValidation>
-    <dataValidation type="decimal" operator="greaterThan" sqref="F2:F1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
+    <dataValidation type="decimal" operator="greaterThanOrEqual" sqref="F2:F1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>0</formula1>
       <formula2/>
     </dataValidation>
     <dataValidation type="list" sqref="G2:G1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'volume_unit'!$A$1:$A$3</formula1>
     </dataValidation>
-    <dataValidation type="decimal" operator="greaterThan" sqref="H2:H1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
+    <dataValidation type="decimal" operator="greaterThanOrEqual" sqref="H2:H1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>0</formula1>
       <formula2/>
     </dataValidation>
@@ -767,7 +767,7 @@
     <dataValidation type="list" sqref="K2:K1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'preparation_condition'!$A$1:$A$10</formula1>
     </dataValidation>
-    <dataValidation type="decimal" operator="greaterThan" sqref="L2:L1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
+    <dataValidation type="decimal" operator="greaterThanOrEqual" sqref="L2:L1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>0</formula1>
       <formula2/>
     </dataValidation>

--- a/sample-block/v2.0.0/sample-block-v2.0.0.xlsx
+++ b/sample-block/v2.0.0/sample-block-v2.0.0.xlsx
@@ -130,8 +130,8 @@
     </comment>
     <comment ref="S1" authorId="1">
       <text>
-        <t>The string that serves as the definitive identifier for the metadata schema
-version and is readily interpretable by computers for data validation and
+        <t>(Required) The string that serves as the definitive identifier for the metadata
+schema version and is readily interpretable by computers for data validation and
 processing.</t>
       </text>
     </comment>
@@ -140,7 +140,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="134">
   <si>
     <t>sample_id</t>
   </si>
@@ -187,12 +187,6 @@
     <t>tissue_weight_unit</t>
   </si>
   <si>
-    <t>ng</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/UO_0000024</t>
-  </si>
-  <si>
     <t>ug</t>
   </si>
   <si>
@@ -229,16 +223,22 @@
     <t>http://purl.obolibrary.org/obo/UO_0000097</t>
   </si>
   <si>
+    <t>um^3</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000112</t>
+  </si>
+  <si>
     <t>mm^3</t>
   </si>
   <si>
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000136</t>
   </si>
   <si>
-    <t>um^3</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000112</t>
+    <t>ml</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/UO_0000098</t>
   </si>
   <si>
     <t>pathology_distance_value</t>
@@ -253,24 +253,12 @@
     <t>http://purl.obolibrary.org/obo/UO_0000016</t>
   </si>
   <si>
-    <t>um</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/UO_0000017</t>
-  </si>
-  <si>
     <t>cm</t>
   </si>
   <si>
     <t>http://purl.obolibrary.org/obo/UO_0000015</t>
   </si>
   <si>
-    <t>nm</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/UO_0000018</t>
-  </si>
-  <si>
     <t>preparation_medium</t>
   </si>
   <si>
@@ -286,36 +274,36 @@
     <t>http://purl.obolibrary.org/obo/OBIB_0000213</t>
   </si>
   <si>
-    <t>PLP (Periodate-lysine-paraformaldehyde)</t>
+    <t>Ethanol</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/CHEBI_16236</t>
+  </si>
+  <si>
+    <t>Allprotect tissue reagent (ALL)</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000118</t>
+  </si>
+  <si>
+    <t>CLARITY hydrogel</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000134</t>
+  </si>
+  <si>
+    <t>Inflated (Agarose)</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000106</t>
+  </si>
+  <si>
+    <t>PLP (Periodate-Lysine-Paraformaldehyde)</t>
   </si>
   <si>
     <t>http://purl.bioontology.org/ontology/MESH/C046311</t>
   </si>
   <si>
-    <t>Ethanol</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/CHEBI_16236</t>
-  </si>
-  <si>
-    <t>Allprotect tissue reagent (ALL)</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000118</t>
-  </si>
-  <si>
-    <t>CLARITY hydrogel</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000134</t>
-  </si>
-  <si>
-    <t>Inflated (Agarose)</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000106</t>
-  </si>
-  <si>
     <t>MACS tissue storage solution</t>
   </si>
   <si>
@@ -433,6 +421,72 @@
     <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C185338</t>
   </si>
   <si>
+    <t>Frozen at -20 degrees celsius</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000107</t>
+  </si>
+  <si>
+    <t>Frozen on dry ice</t>
+  </si>
+  <si>
+    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C187069</t>
+  </si>
+  <si>
+    <t>processing_time_value</t>
+  </si>
+  <si>
+    <t>processing_time_unit</t>
+  </si>
+  <si>
+    <t>storage_medium</t>
+  </si>
+  <si>
+    <t>OCT</t>
+  </si>
+  <si>
+    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C63523</t>
+  </si>
+  <si>
+    <t>DMSO (no serum)</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000115</t>
+  </si>
+  <si>
+    <t>Tris-EDTA</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000135</t>
+  </si>
+  <si>
+    <t>Gelatin</t>
+  </si>
+  <si>
+    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C65802</t>
+  </si>
+  <si>
+    <t>DMSO (serum)</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000125</t>
+  </si>
+  <si>
+    <t>FFPE (Paraffin embedded)</t>
+  </si>
+  <si>
+    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C143028</t>
+  </si>
+  <si>
+    <t>CMC</t>
+  </si>
+  <si>
+    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C83594</t>
+  </si>
+  <si>
+    <t>storage_method</t>
+  </si>
+  <si>
     <t>Incubated at 37 degrees celsius</t>
   </si>
   <si>
@@ -445,78 +499,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000132</t>
   </si>
   <si>
-    <t>Frozen at -20 degrees celsius</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000107</t>
-  </si>
-  <si>
-    <t>Frozen on dry ice</t>
-  </si>
-  <si>
-    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C187069</t>
-  </si>
-  <si>
     <t>Stored in refrigerator</t>
   </si>
   <si>
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000104</t>
   </si>
   <si>
-    <t>processing_time_value</t>
-  </si>
-  <si>
-    <t>processing_time_unit</t>
-  </si>
-  <si>
-    <t>storage_medium</t>
-  </si>
-  <si>
-    <t>OCT</t>
-  </si>
-  <si>
-    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C63523</t>
-  </si>
-  <si>
-    <t>DMSO (no serum)</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000115</t>
-  </si>
-  <si>
-    <t>Tris-EDTA</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000135</t>
-  </si>
-  <si>
-    <t>DMSO (with serum)</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000125</t>
-  </si>
-  <si>
-    <t>Gelatin</t>
-  </si>
-  <si>
-    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C65802</t>
-  </si>
-  <si>
-    <t>FFPE (Paraffin embedded)</t>
-  </si>
-  <si>
-    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C143028</t>
-  </si>
-  <si>
-    <t>CMC</t>
-  </si>
-  <si>
-    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C83594</t>
-  </si>
-  <si>
-    <t>storage_method</t>
-  </si>
-  <si>
     <t>quality_criteria</t>
   </si>
   <si>
@@ -547,7 +535,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2023-08-11T13:11:45-07:00</t>
+    <t>2023-09-08T20:49:36-07:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -684,10 +672,10 @@
         <v>14</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H1" t="s" s="1">
         <v>33</v>
@@ -696,39 +684,39 @@
         <v>34</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="O1" t="s" s="1">
+        <v>114</v>
+      </c>
+      <c r="P1" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="Q1" t="s" s="1">
+        <v>122</v>
+      </c>
+      <c r="R1" t="s" s="1">
+        <v>123</v>
+      </c>
+      <c r="S1" t="s" s="1">
         <v>124</v>
-      </c>
-      <c r="P1" t="s" s="1">
-        <v>125</v>
-      </c>
-      <c r="Q1" t="s" s="1">
-        <v>126</v>
-      </c>
-      <c r="R1" t="s" s="1">
-        <v>127</v>
-      </c>
-      <c r="S1" t="s" s="1">
-        <v>128</v>
       </c>
     </row>
     <row r="2">
       <c r="S2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -745,34 +733,34 @@
       <formula2/>
     </dataValidation>
     <dataValidation type="list" sqref="E2:E1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'tissue_weight_unit'!$A$1:$A$5</formula1>
+      <formula1>'tissue_weight_unit'!$A$1:$A$4</formula1>
     </dataValidation>
     <dataValidation type="decimal" operator="greaterThanOrEqual" sqref="F2:F1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>0</formula1>
       <formula2/>
     </dataValidation>
     <dataValidation type="list" sqref="G2:G1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'volume_unit'!$A$1:$A$3</formula1>
+      <formula1>'volume_unit'!$A$1:$A$4</formula1>
     </dataValidation>
     <dataValidation type="decimal" operator="greaterThanOrEqual" sqref="H2:H1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>0</formula1>
       <formula2/>
     </dataValidation>
     <dataValidation type="list" sqref="I2:I1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'pathology_distance_unit'!$A$1:$A$4</formula1>
+      <formula1>'pathology_distance_unit'!$A$1:$A$2</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="J2:J1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'preparation_medium'!$A$1:$A$22</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="K2:K1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'preparation_condition'!$A$1:$A$10</formula1>
+      <formula1>'preparation_condition'!$A$1:$A$7</formula1>
     </dataValidation>
     <dataValidation type="decimal" operator="greaterThanOrEqual" sqref="L2:L1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>0</formula1>
       <formula2/>
     </dataValidation>
     <dataValidation type="list" sqref="M2:M1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'processing_time_unit'!$A$1:$A$5</formula1>
+      <formula1>'processing_time_unit'!$A$1:$A$3</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="N2:N1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'storage_medium'!$A$1:$A$18</formula1>
@@ -797,90 +785,90 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B3" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B4" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B5" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="B6" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>99</v>
+        <v>117</v>
       </c>
       <c r="B7" t="s">
-        <v>100</v>
+        <v>118</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="B8" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="B9" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="B10" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B11" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -904,30 +892,30 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C1" t="s">
         <v>130</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>132</v>
-      </c>
-      <c r="C1" t="s">
-        <v>134</v>
-      </c>
-      <c r="D1" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2" t="s">
         <v>131</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>133</v>
-      </c>
-      <c r="C2" t="s">
-        <v>135</v>
-      </c>
-      <c r="D2" t="s">
-        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -990,7 +978,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1028,57 +1016,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" t="s">
-        <v>24</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -1088,6 +1031,51 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
         <v>35</v>
       </c>
       <c r="B1" t="s">
@@ -1100,22 +1088,6 @@
       </c>
       <c r="B2" t="s">
         <v>38</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B4" t="s">
-        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1133,178 +1105,178 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B4" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B5" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B6" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B7" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B8" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B10" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B11" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B12" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B13" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B14" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B15" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B16" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B17" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B18" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B19" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B20" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B21" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B22" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -1314,7 +1286,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1322,82 +1294,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B3" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B4" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B5" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B6" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B7" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>101</v>
-      </c>
-      <c r="B8" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>103</v>
-      </c>
-      <c r="B9" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>105</v>
-      </c>
-      <c r="B10" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -1407,7 +1355,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1423,33 +1371,17 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1468,146 +1400,146 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="B2" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B4" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B5" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="B6" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B7" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B8" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="B9" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>116</v>
+        <v>66</v>
       </c>
       <c r="B10" t="s">
-        <v>117</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>70</v>
+        <v>106</v>
       </c>
       <c r="B11" t="s">
-        <v>71</v>
+        <v>107</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="B12" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B13" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="B14" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="B15" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B16" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B17" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B18" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
